--- a/app/config/tables/maleClients/forms/maleClients/maleClients.xlsx
+++ b/app/config/tables/maleClients/forms/maleClients/maleClients.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>type</t>
   </si>
@@ -38,9 +38,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -51,18 +48,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>read_only</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
-    <t>media::image</t>
   </si>
   <si>
     <t>yes_no</t>
@@ -565,9 +550,6 @@
     <t>display.text</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -581,9 +563,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>display.title</t>
   </si>
   <si>
     <t>form_version</t>
@@ -936,12 +915,24 @@
   </si>
   <si>
     <t>["interviewerw_init","interviewer_id","date","client_id","agree_screening","age","ethnic_group","ethnic_group_other","education_level","religion","religion_other","employment","employment_other","curr_relationship","living_children","living_children_enrolled_female","hiv_tested","test_result","ineligible_statement","client_consent","refusal_reasons","refusal_reasons_other","hiv_status","pretest","still_relationship","preg_want_children","more_children","partner_want_children","influences","influences_other","ccc","prescr_tmp","curr_tmp","prescr_art","curr_taking_art","determine","advise_second","unigold","elisa_blood_drawn","discordant","return_disc_retest","comments"]</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\a0"/>
   </numFmts>
@@ -1961,13 +1952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1978,71 +1969,57 @@
     <col min="4" max="4" width="25.109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="51.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="2"/>
+    <col min="7" max="7" width="10.77734375" style="2"/>
+    <col min="8" max="8" width="26.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" style="17"/>
     <col min="10" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2050,418 +2027,414 @@
       <c r="I2" s="14"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="141.4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="141.4" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="47.15" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="94.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="94.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E13" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="219.95" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="78.55" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="78.55" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:9" s="3" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" ht="78.55" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2469,67 +2442,63 @@
       <c r="I33" s="14"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="2:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="2:17" s="3" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" s="3" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" s="20" customFormat="1" ht="195.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="20" customFormat="1" ht="195.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -2537,24 +2506,19 @@
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-    </row>
-    <row r="38" spans="2:17" s="20" customFormat="1" ht="195.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:12" s="20" customFormat="1" ht="195.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
@@ -2563,22 +2527,17 @@
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-    </row>
-    <row r="39" spans="2:17" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:12" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B39" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
@@ -2587,24 +2546,19 @@
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-    </row>
-    <row r="40" spans="2:17" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:12" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B40" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
@@ -2613,22 +2567,17 @@
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-    </row>
-    <row r="41" spans="2:17" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:12" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B41" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -2637,24 +2586,19 @@
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-    </row>
-    <row r="42" spans="2:17" s="20" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:12" s="20" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B42" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -2663,24 +2607,19 @@
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-    </row>
-    <row r="43" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -2689,24 +2628,19 @@
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-    </row>
-    <row r="44" spans="2:17" s="20" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:12" s="20" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B44" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -2715,27 +2649,22 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-    </row>
-    <row r="45" spans="2:17" s="20" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:12" s="20" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B45" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -2743,22 +2672,17 @@
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-    </row>
-    <row r="46" spans="2:17" s="20" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:12" s="20" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -2767,22 +2691,17 @@
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-    </row>
-    <row r="47" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -2791,24 +2710,19 @@
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-    </row>
-    <row r="48" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -2817,24 +2731,19 @@
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-    </row>
-    <row r="49" spans="2:18" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:13" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B49" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -2843,24 +2752,19 @@
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-    </row>
-    <row r="50" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
@@ -2869,24 +2773,19 @@
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-    </row>
-    <row r="51" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
@@ -2895,24 +2794,19 @@
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-    </row>
-    <row r="52" spans="2:18" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:13" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B52" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -2921,24 +2815,19 @@
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-    </row>
-    <row r="53" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
@@ -2947,22 +2836,17 @@
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-    </row>
-    <row r="54" spans="2:18" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:13" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B54" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -2971,180 +2855,175 @@
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-    </row>
-    <row r="55" spans="2:18" ht="94.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:13" ht="94.25" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M55" s="20"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M56" s="20"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M57" s="20"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="M58" s="20"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="R55" s="20"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="18" t="s">
+      <c r="E59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="M59" s="20"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="R56" s="20"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="E60" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="M60" s="20"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="R57" s="20"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="E61" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="M61" s="20"/>
+    </row>
+    <row r="62" spans="2:13" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="R58" s="20"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="E62" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="R59" s="20"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="18" t="s">
+      <c r="M62" s="20"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="D63" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="R60" s="20"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="M63" s="20"/>
+    </row>
+    <row r="64" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E64" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="R61" s="20"/>
-    </row>
-    <row r="62" spans="2:18" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B62" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="18" t="s">
+      <c r="I64" s="24"/>
+      <c r="L64" s="22"/>
+    </row>
+    <row r="65" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E65" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="R62" s="20"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="R63" s="20"/>
-    </row>
-    <row r="64" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="I64" s="24"/>
-      <c r="Q64" s="22"/>
-    </row>
-    <row r="65" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>254</v>
-      </c>
       <c r="I65" s="24"/>
-      <c r="Q65" s="22"/>
-    </row>
-    <row r="66" spans="2:17" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="L65" s="22"/>
+    </row>
+    <row r="66" spans="2:12" s="20" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B66" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
@@ -3153,11 +3032,6 @@
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3188,1058 +3062,1058 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" s="27">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="27">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" s="27">
         <v>888</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B6" s="27">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B7" s="27">
         <v>888</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B8" s="27">
         <v>888</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B9" s="27">
         <v>999</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="27">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="27">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="27">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="27">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16" s="27">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" s="27">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" s="28">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B19" s="28">
         <v>888</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" s="27">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="27">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="27">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" s="27">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" s="27">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="27">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26" s="27">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27" s="27">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" s="27">
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" s="27">
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30" s="27">
         <v>888</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B31" s="27">
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32" s="27">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B33" s="27">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" s="27">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B35" s="27">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36" s="27">
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B37" s="27">
         <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B38" s="27">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B39" s="27">
         <v>888</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B40" s="27">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B41" s="27">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B42" s="27">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B43" s="27">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B44" s="27">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B45" s="27">
         <v>888</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B46" s="27">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B47" s="27">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B48" s="27">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B49" s="27">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B50" s="27">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" s="27">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52" s="27">
         <v>888</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B53" s="27">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B54" s="27">
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B55" s="27">
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B56" s="27">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B57" s="27">
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B58" s="27">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B59" s="27">
         <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B60" s="27">
         <v>999</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B61" s="27">
         <v>0</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B62" s="27">
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B63" s="27">
         <v>888</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B64" s="27">
         <v>999</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B65" s="27">
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B66" s="27">
         <v>0</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B67" s="27">
         <v>888</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B68" s="27">
         <v>999</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B69" s="27">
         <v>-777</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B70" s="27">
         <v>-888</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B71" s="27">
         <v>-999</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B72" s="27">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B73" s="27">
         <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B74" s="27">
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B75" s="27">
         <v>999</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B76" s="27">
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B77" s="27">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B78" s="27">
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B79" s="27">
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B80" s="27">
         <v>2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B81" s="27">
         <v>3</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B82" s="27">
         <v>4</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B83" s="27">
         <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B84" s="27">
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B85" s="27">
         <v>888</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B86" s="27">
         <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B87" s="27">
         <v>1</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B88" s="27">
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B89" s="27">
         <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B90" s="27">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B91" s="27">
         <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B92" s="27">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B93" s="27">
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B94" s="27">
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B95" s="27">
         <v>2</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B96" s="29">
         <v>0</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="26"/>
@@ -4247,13 +4121,13 @@
     </row>
     <row r="97" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B97" s="29">
         <v>1</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
@@ -4261,13 +4135,13 @@
     </row>
     <row r="98" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B98" s="29">
         <v>2</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -4275,13 +4149,13 @@
     </row>
     <row r="99" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B99" s="29">
         <v>3</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
@@ -4289,13 +4163,13 @@
     </row>
     <row r="100" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B100" s="30">
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
@@ -4303,13 +4177,13 @@
     </row>
     <row r="101" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B101" s="30">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
@@ -4317,13 +4191,13 @@
     </row>
     <row r="102" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B102" s="29">
         <v>1</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
@@ -4331,13 +4205,13 @@
     </row>
     <row r="103" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B103" s="29">
         <v>0</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
@@ -4345,13 +4219,13 @@
     </row>
     <row r="104" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B104" s="29">
         <v>666</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
@@ -4359,13 +4233,13 @@
     </row>
     <row r="105" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B105" s="29">
         <v>888</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
@@ -4373,13 +4247,13 @@
     </row>
     <row r="106" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B106" s="29">
         <v>999</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
@@ -4390,13 +4264,13 @@
     </row>
     <row r="108" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B108" s="29">
         <v>1</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
@@ -4404,13 +4278,13 @@
     </row>
     <row r="109" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B109" s="29">
         <v>0</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
@@ -4418,13 +4292,13 @@
     </row>
     <row r="110" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B110" s="29">
         <v>666</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
@@ -4432,13 +4306,13 @@
     </row>
     <row r="111" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B111" s="29">
         <v>888</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
@@ -4446,13 +4320,13 @@
     </row>
     <row r="112" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B112" s="29">
         <v>999</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
@@ -4468,13 +4342,13 @@
     </row>
     <row r="114" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B114" s="29">
         <v>1</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D114" s="26"/>
       <c r="E114" s="26"/>
@@ -4482,13 +4356,13 @@
     </row>
     <row r="115" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B115" s="29">
         <v>2</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
@@ -4496,13 +4370,13 @@
     </row>
     <row r="116" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="25" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B116" s="29">
         <v>777</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
@@ -4510,13 +4384,13 @@
     </row>
     <row r="117" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B117" s="29">
         <v>888</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D117" s="26"/>
       <c r="E117" s="26"/>
@@ -4524,13 +4398,13 @@
     </row>
     <row r="118" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B118" s="29">
         <v>999</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D118" s="26"/>
       <c r="E118" s="26"/>
@@ -4541,13 +4415,13 @@
     </row>
     <row r="120" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B120" s="29">
         <v>1</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D120" s="26"/>
       <c r="E120" s="26"/>
@@ -4555,13 +4429,13 @@
     </row>
     <row r="121" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B121" s="29">
         <v>2</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D121" s="26"/>
       <c r="E121" s="26"/>
@@ -4569,13 +4443,13 @@
     </row>
     <row r="122" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B122" s="29">
         <v>3</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D122" s="26"/>
       <c r="E122" s="26"/>
@@ -4583,13 +4457,13 @@
     </row>
     <row r="123" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B123" s="29">
         <v>888</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
@@ -4597,13 +4471,13 @@
     </row>
     <row r="124" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B124" s="29">
         <v>999</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D124" s="26"/>
       <c r="E124" s="26"/>
@@ -4619,13 +4493,13 @@
     </row>
     <row r="126" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B126" s="29">
         <v>1</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D126" s="26"/>
       <c r="E126" s="26"/>
@@ -4633,13 +4507,13 @@
     </row>
     <row r="127" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B127" s="29">
         <v>2</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
@@ -4647,13 +4521,13 @@
     </row>
     <row r="128" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B128" s="29">
         <v>3</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D128" s="26"/>
       <c r="E128" s="26"/>
@@ -4661,13 +4535,13 @@
     </row>
     <row r="129" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B129" s="29">
         <v>4</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
@@ -4675,13 +4549,13 @@
     </row>
     <row r="130" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B130" s="29">
         <v>5</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D130" s="26"/>
       <c r="E130" s="26"/>
@@ -4689,13 +4563,13 @@
     </row>
     <row r="131" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B131" s="29">
         <v>6</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D131" s="26"/>
       <c r="E131" s="26"/>
@@ -4703,13 +4577,13 @@
     </row>
     <row r="132" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B132" s="29">
         <v>888</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
@@ -4725,13 +4599,13 @@
     </row>
     <row r="134" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B134" s="29">
         <v>1</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
@@ -4739,13 +4613,13 @@
     </row>
     <row r="135" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B135" s="29">
         <v>2</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
@@ -4753,13 +4627,13 @@
     </row>
     <row r="136" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B136" s="29">
         <v>3</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
@@ -4767,13 +4641,13 @@
     </row>
     <row r="137" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B137" s="29">
         <v>4</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
@@ -4781,13 +4655,13 @@
     </row>
     <row r="138" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B138" s="29">
         <v>5</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
@@ -4795,13 +4669,13 @@
     </row>
     <row r="139" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B139" s="29">
         <v>6</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -4809,13 +4683,13 @@
     </row>
     <row r="140" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B140" s="29">
         <v>7</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
@@ -4823,13 +4697,13 @@
     </row>
     <row r="141" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B141" s="29">
         <v>8</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
@@ -4837,13 +4711,13 @@
     </row>
     <row r="142" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B142" s="29">
         <v>9</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
@@ -4851,13 +4725,13 @@
     </row>
     <row r="143" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B143" s="29">
         <v>10</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
@@ -4865,13 +4739,13 @@
     </row>
     <row r="144" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B144" s="29">
         <v>11</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
@@ -4879,13 +4753,13 @@
     </row>
     <row r="145" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B145" s="29">
         <v>12</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
@@ -4893,13 +4767,13 @@
     </row>
     <row r="146" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B146" s="29">
         <v>13</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
@@ -4907,13 +4781,13 @@
     </row>
     <row r="147" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B147" s="29">
         <v>14</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
@@ -4921,13 +4795,13 @@
     </row>
     <row r="148" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B148" s="29">
         <v>15</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
@@ -4935,13 +4809,13 @@
     </row>
     <row r="149" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B149" s="29">
         <v>16</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
@@ -4949,13 +4823,13 @@
     </row>
     <row r="150" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B150" s="29">
         <v>888</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
@@ -4966,13 +4840,13 @@
     </row>
     <row r="152" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B152" s="27">
         <v>1</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
@@ -4980,13 +4854,13 @@
     </row>
     <row r="153" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B153" s="27">
         <v>0</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
@@ -4997,13 +4871,13 @@
     </row>
     <row r="155" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B155" s="27">
         <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>
@@ -5011,13 +4885,13 @@
     </row>
     <row r="156" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B156" s="27">
         <v>0</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
@@ -5025,13 +4899,13 @@
     </row>
     <row r="157" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B157" s="27">
         <v>3</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
@@ -5039,13 +4913,13 @@
     </row>
     <row r="158" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B158" s="27">
         <v>4</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D158" s="25"/>
       <c r="E158" s="25"/>
@@ -5053,13 +4927,13 @@
     </row>
     <row r="159" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B159" s="29">
         <v>1</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D159" s="25"/>
       <c r="E159" s="25"/>
@@ -5067,13 +4941,13 @@
     </row>
     <row r="160" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B160" s="29">
         <v>888</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D160" s="25"/>
       <c r="E160" s="25"/>
@@ -5094,8 +4968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5106,26 +4980,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5133,18 +5007,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5161,7 +5035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -5172,36 +5046,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maleClients/forms/maleClients/maleClients.xlsx
+++ b/app/config/tables/maleClients/forms/maleClients/maleClients.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="298">
   <si>
     <t>type</t>
   </si>
@@ -545,9 +545,6 @@
   </si>
   <si>
     <t>end screen</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>true</t>
@@ -1989,16 +1986,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>3</v>
@@ -2066,7 +2063,7 @@
         <v>127</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="141.4" x14ac:dyDescent="0.3">
@@ -2095,7 +2092,7 @@
         <v>70</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.15" x14ac:dyDescent="0.3">
@@ -2124,7 +2121,7 @@
         <v>137</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2247,7 +2244,7 @@
         <v>121</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -2481,7 +2478,7 @@
         <v>127</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:12" s="20" customFormat="1" ht="195.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -2489,16 +2486,16 @@
         <v>167</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -2512,13 +2509,13 @@
         <v>167</v>
       </c>
       <c r="C38" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="E38" s="20" t="s">
         <v>186</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>187</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
@@ -2534,10 +2531,10 @@
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>189</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
@@ -2555,10 +2552,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
@@ -2574,10 +2571,10 @@
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -2592,13 +2589,13 @@
         <v>167</v>
       </c>
       <c r="C42" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="E42" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -2613,13 +2610,13 @@
         <v>167</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="E43" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -2634,13 +2631,13 @@
         <v>167</v>
       </c>
       <c r="C44" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="E44" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -2655,16 +2652,16 @@
         <v>167</v>
       </c>
       <c r="C45" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="E45" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="F45" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -2679,10 +2676,10 @@
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -2698,10 +2695,10 @@
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>210</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -2722,7 +2719,7 @@
         <v>157</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -2740,10 +2737,10 @@
         <v>84</v>
       </c>
       <c r="D49" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>212</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>213</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -2761,10 +2758,10 @@
         <v>112</v>
       </c>
       <c r="D50" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
@@ -2782,10 +2779,10 @@
         <v>112</v>
       </c>
       <c r="D51" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>216</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>217</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
@@ -2803,10 +2800,10 @@
         <v>112</v>
       </c>
       <c r="D52" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" s="22" t="s">
         <v>218</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -2824,10 +2821,10 @@
         <v>112</v>
       </c>
       <c r="D53" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
@@ -2843,10 +2840,10 @@
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -2861,13 +2858,13 @@
         <v>10</v>
       </c>
       <c r="D55" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="M55" s="20"/>
     </row>
@@ -2879,10 +2876,10 @@
         <v>66</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="M56" s="20"/>
     </row>
@@ -2891,13 +2888,13 @@
         <v>167</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D57" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="M57" s="20"/>
     </row>
@@ -2909,10 +2906,10 @@
         <v>66</v>
       </c>
       <c r="D58" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="M58" s="20"/>
     </row>
@@ -2921,10 +2918,10 @@
         <v>10</v>
       </c>
       <c r="D59" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="M59" s="20"/>
     </row>
@@ -2933,10 +2930,10 @@
         <v>10</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="M60" s="20"/>
     </row>
@@ -2945,10 +2942,10 @@
         <v>10</v>
       </c>
       <c r="D61" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="M61" s="20"/>
     </row>
@@ -2960,13 +2957,13 @@
         <v>7</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="M62" s="20"/>
     </row>
@@ -2975,13 +2972,13 @@
         <v>167</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="M63" s="20"/>
     </row>
@@ -2993,10 +2990,10 @@
         <v>7</v>
       </c>
       <c r="D64" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="20" t="s">
         <v>244</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>245</v>
       </c>
       <c r="I64" s="24"/>
       <c r="L64" s="22"/>
@@ -3006,10 +3003,10 @@
         <v>11</v>
       </c>
       <c r="D65" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>246</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>247</v>
       </c>
       <c r="I65" s="24"/>
       <c r="L65" s="22"/>
@@ -3020,7 +3017,7 @@
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E66" s="22" t="s">
         <v>109</v>
@@ -3048,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3062,13 +3059,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4107,7 +4104,7 @@
     </row>
     <row r="96" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B96" s="29">
         <v>0</v>
@@ -4121,7 +4118,7 @@
     </row>
     <row r="97" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B97" s="29">
         <v>1</v>
@@ -4135,13 +4132,13 @@
     </row>
     <row r="98" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B98" s="29">
         <v>2</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -4149,13 +4146,13 @@
     </row>
     <row r="99" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99" s="29">
         <v>3</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
@@ -4163,7 +4160,7 @@
     </row>
     <row r="100" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B100" s="30">
         <v>1</v>
@@ -4177,7 +4174,7 @@
     </row>
     <row r="101" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B101" s="30">
         <v>2</v>
@@ -4191,13 +4188,13 @@
     </row>
     <row r="102" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B102" s="29">
         <v>1</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
@@ -4205,13 +4202,13 @@
     </row>
     <row r="103" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B103" s="29">
         <v>0</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
@@ -4219,13 +4216,13 @@
     </row>
     <row r="104" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" s="29">
         <v>666</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
@@ -4233,7 +4230,7 @@
     </row>
     <row r="105" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="29">
         <v>888</v>
@@ -4247,7 +4244,7 @@
     </row>
     <row r="106" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B106" s="29">
         <v>999</v>
@@ -4264,7 +4261,7 @@
     </row>
     <row r="108" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B108" s="29">
         <v>1</v>
@@ -4278,7 +4275,7 @@
     </row>
     <row r="109" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B109" s="29">
         <v>0</v>
@@ -4292,13 +4289,13 @@
     </row>
     <row r="110" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B110" s="29">
         <v>666</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
@@ -4306,7 +4303,7 @@
     </row>
     <row r="111" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B111" s="29">
         <v>888</v>
@@ -4320,7 +4317,7 @@
     </row>
     <row r="112" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B112" s="29">
         <v>999</v>
@@ -4342,13 +4339,13 @@
     </row>
     <row r="114" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B114" s="29">
         <v>1</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D114" s="26"/>
       <c r="E114" s="26"/>
@@ -4356,13 +4353,13 @@
     </row>
     <row r="115" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B115" s="29">
         <v>2</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
@@ -4370,13 +4367,13 @@
     </row>
     <row r="116" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B116" s="29">
         <v>777</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="117" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B117" s="29">
         <v>888</v>
@@ -4398,7 +4395,7 @@
     </row>
     <row r="118" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B118" s="29">
         <v>999</v>
@@ -4415,13 +4412,13 @@
     </row>
     <row r="120" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B120" s="29">
         <v>1</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D120" s="26"/>
       <c r="E120" s="26"/>
@@ -4429,13 +4426,13 @@
     </row>
     <row r="121" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B121" s="29">
         <v>2</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D121" s="26"/>
       <c r="E121" s="26"/>
@@ -4443,13 +4440,13 @@
     </row>
     <row r="122" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B122" s="29">
         <v>3</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D122" s="26"/>
       <c r="E122" s="26"/>
@@ -4457,7 +4454,7 @@
     </row>
     <row r="123" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B123" s="29">
         <v>888</v>
@@ -4471,7 +4468,7 @@
     </row>
     <row r="124" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B124" s="29">
         <v>999</v>
@@ -4493,13 +4490,13 @@
     </row>
     <row r="126" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B126" s="29">
         <v>1</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D126" s="26"/>
       <c r="E126" s="26"/>
@@ -4507,13 +4504,13 @@
     </row>
     <row r="127" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B127" s="29">
         <v>2</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
@@ -4521,13 +4518,13 @@
     </row>
     <row r="128" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B128" s="29">
         <v>3</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D128" s="26"/>
       <c r="E128" s="26"/>
@@ -4535,13 +4532,13 @@
     </row>
     <row r="129" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B129" s="29">
         <v>4</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
@@ -4549,13 +4546,13 @@
     </row>
     <row r="130" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B130" s="29">
         <v>5</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D130" s="26"/>
       <c r="E130" s="26"/>
@@ -4563,7 +4560,7 @@
     </row>
     <row r="131" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B131" s="29">
         <v>6</v>
@@ -4577,7 +4574,7 @@
     </row>
     <row r="132" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B132" s="29">
         <v>888</v>
@@ -4599,13 +4596,13 @@
     </row>
     <row r="134" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B134" s="29">
         <v>1</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
@@ -4613,13 +4610,13 @@
     </row>
     <row r="135" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B135" s="29">
         <v>2</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
@@ -4627,13 +4624,13 @@
     </row>
     <row r="136" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B136" s="29">
         <v>3</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
@@ -4641,13 +4638,13 @@
     </row>
     <row r="137" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B137" s="29">
         <v>4</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
@@ -4655,13 +4652,13 @@
     </row>
     <row r="138" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B138" s="29">
         <v>5</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
@@ -4669,13 +4666,13 @@
     </row>
     <row r="139" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B139" s="29">
         <v>6</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
@@ -4683,13 +4680,13 @@
     </row>
     <row r="140" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B140" s="29">
         <v>7</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
@@ -4697,13 +4694,13 @@
     </row>
     <row r="141" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B141" s="29">
         <v>8</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
@@ -4711,13 +4708,13 @@
     </row>
     <row r="142" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B142" s="29">
         <v>9</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
@@ -4725,13 +4722,13 @@
     </row>
     <row r="143" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B143" s="29">
         <v>10</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
@@ -4739,13 +4736,13 @@
     </row>
     <row r="144" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B144" s="29">
         <v>11</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
@@ -4753,13 +4750,13 @@
     </row>
     <row r="145" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B145" s="29">
         <v>12</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
@@ -4767,13 +4764,13 @@
     </row>
     <row r="146" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B146" s="29">
         <v>13</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
@@ -4781,13 +4778,13 @@
     </row>
     <row r="147" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B147" s="29">
         <v>14</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
@@ -4795,7 +4792,7 @@
     </row>
     <row r="148" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B148" s="29">
         <v>15</v>
@@ -4809,13 +4806,13 @@
     </row>
     <row r="149" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B149" s="29">
         <v>16</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
@@ -4823,7 +4820,7 @@
     </row>
     <row r="150" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B150" s="29">
         <v>888</v>
@@ -4840,7 +4837,7 @@
     </row>
     <row r="152" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B152" s="27">
         <v>1</v>
@@ -4854,7 +4851,7 @@
     </row>
     <row r="153" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B153" s="27">
         <v>0</v>
@@ -4871,7 +4868,7 @@
     </row>
     <row r="155" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B155" s="27">
         <v>1</v>
@@ -4885,7 +4882,7 @@
     </row>
     <row r="156" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B156" s="27">
         <v>0</v>
@@ -4899,13 +4896,13 @@
     </row>
     <row r="157" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B157" s="27">
         <v>3</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
@@ -4913,13 +4910,13 @@
     </row>
     <row r="158" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B158" s="27">
         <v>4</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D158" s="25"/>
       <c r="E158" s="25"/>
@@ -4927,13 +4924,13 @@
     </row>
     <row r="159" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B159" s="29">
         <v>1</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D159" s="25"/>
       <c r="E159" s="25"/>
@@ -4941,7 +4938,7 @@
     </row>
     <row r="160" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B160" s="29">
         <v>888</v>
@@ -4968,7 +4965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4980,13 +4977,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4994,12 +4991,12 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -5007,18 +5004,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
         <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5046,36 +5043,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s">
         <v>288</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>289</v>
-      </c>
-      <c r="C1" t="s">
-        <v>290</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" t="s">
         <v>292</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>293</v>
-      </c>
-      <c r="E2" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
